--- a/TM.RestHour/Uploads/IMOcrewlistForm5.xlsx
+++ b/TM.RestHour/Uploads/IMOcrewlistForm5.xlsx
@@ -385,9 +385,6 @@
     <t>C0251783</t>
   </si>
   <si>
-    <t>Paul</t>
-  </si>
-  <si>
     <t>Deep</t>
   </si>
   <si>
@@ -395,6 +392,9 @@
   </si>
   <si>
     <t>Deeptabha</t>
+  </si>
+  <si>
+    <t>Paul2</t>
   </si>
 </sst>
 </file>
@@ -766,16 +766,141 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -784,18 +909,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -813,119 +926,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1234,7 +1234,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="F29" sqref="F29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1258,65 +1258,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="38"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="70"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="34"/>
+      <c r="L5" s="66"/>
       <c r="M5" s="2"/>
       <c r="N5" s="5"/>
       <c r="O5" s="4" t="s">
@@ -1325,108 +1325,108 @@
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="32" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="40" t="s">
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="32">
+      <c r="G6" s="50"/>
+      <c r="H6" s="30">
         <v>8618217</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="49" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="51" t="s">
+      <c r="M6" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="30"/>
-      <c r="O6" s="49" t="s">
+      <c r="N6" s="31"/>
+      <c r="O6" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="46"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="31"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="33"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="40" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="32" t="s">
+      <c r="G8" s="50"/>
+      <c r="H8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="49" t="s">
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="30"/>
-      <c r="O8" s="49" t="s">
+      <c r="N8" s="31"/>
+      <c r="O8" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="30" t="s">
+      <c r="P8" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="46"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="31"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="33"/>
     </row>
     <row r="10" spans="1:16" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
@@ -1444,25 +1444,25 @@
       <c r="E10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="69" t="s">
+      <c r="F10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="70"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="69" t="s">
+      <c r="I10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="71"/>
-      <c r="K10" s="70"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="28"/>
       <c r="L10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="69" t="s">
+      <c r="M10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="70"/>
+      <c r="N10" s="28"/>
       <c r="O10" s="8" t="s">
         <v>18</v>
       </c>
@@ -1486,25 +1486,25 @@
       <c r="E11" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="58"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="26"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
       <c r="L11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M11" s="59" t="s">
+      <c r="M11" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="N11" s="60"/>
+      <c r="N11" s="40"/>
       <c r="O11" s="22" t="s">
         <v>76</v>
       </c>
@@ -1526,25 +1526,25 @@
       <c r="E12" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="58"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="26"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
       <c r="L12" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M12" s="59" t="s">
+      <c r="M12" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="N12" s="60"/>
+      <c r="N12" s="40"/>
       <c r="O12" s="22" t="s">
         <v>76</v>
       </c>
@@ -1566,25 +1566,25 @@
       <c r="E13" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="58"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="26"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
       <c r="L13" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M13" s="59" t="s">
+      <c r="M13" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="N13" s="60"/>
+      <c r="N13" s="40"/>
       <c r="O13" s="22" t="s">
         <v>84</v>
       </c>
@@ -1606,25 +1606,25 @@
       <c r="E14" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="58"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="26"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
       <c r="L14" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M14" s="67" t="s">
+      <c r="M14" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="N14" s="68"/>
+      <c r="N14" s="42"/>
       <c r="O14" s="22" t="s">
         <v>76</v>
       </c>
@@ -1646,25 +1646,25 @@
       <c r="E15" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="58"/>
+      <c r="G15" s="35"/>
       <c r="H15" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="26"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38"/>
       <c r="L15" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M15" s="67" t="s">
+      <c r="M15" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="N15" s="68"/>
+      <c r="N15" s="42"/>
       <c r="O15" s="22" t="s">
         <v>84</v>
       </c>
@@ -1686,25 +1686,25 @@
       <c r="E16" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="61" t="s">
+      <c r="F16" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="62"/>
+      <c r="G16" s="44"/>
       <c r="H16" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="27"/>
-      <c r="K16" s="26"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
       <c r="L16" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M16" s="63" t="s">
+      <c r="M16" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="N16" s="64"/>
+      <c r="N16" s="46"/>
       <c r="O16" s="22" t="s">
         <v>84</v>
       </c>
@@ -1726,25 +1726,25 @@
       <c r="E17" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="61" t="s">
+      <c r="F17" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="62"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="26"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
       <c r="L17" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M17" s="63" t="s">
+      <c r="M17" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="N17" s="64"/>
+      <c r="N17" s="46"/>
       <c r="O17" s="22" t="s">
         <v>84</v>
       </c>
@@ -1766,25 +1766,25 @@
       <c r="E18" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="65" t="s">
+      <c r="F18" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="66"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="26"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
       <c r="L18" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M18" s="65" t="s">
+      <c r="M18" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="N18" s="66"/>
+      <c r="N18" s="48"/>
       <c r="O18" s="22" t="s">
         <v>84</v>
       </c>
@@ -1806,25 +1806,25 @@
       <c r="E19" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="58"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="26"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38"/>
       <c r="L19" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M19" s="59" t="s">
+      <c r="M19" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="N19" s="60"/>
+      <c r="N19" s="40"/>
       <c r="O19" s="22" t="s">
         <v>84</v>
       </c>
@@ -1846,25 +1846,25 @@
       <c r="E20" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="58"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="26"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M20" s="59" t="s">
+      <c r="M20" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="N20" s="60"/>
+      <c r="N20" s="40"/>
       <c r="O20" s="22" t="s">
         <v>76</v>
       </c>
@@ -1886,25 +1886,25 @@
       <c r="E21" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="53"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="J21" s="27"/>
-      <c r="K21" s="26"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
       <c r="L21" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M21" s="52" t="s">
+      <c r="M21" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="N21" s="53"/>
+      <c r="N21" s="26"/>
       <c r="O21" s="22" t="s">
         <v>84</v>
       </c>
@@ -1926,25 +1926,25 @@
       <c r="E22" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G22" s="53"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="J22" s="27"/>
-      <c r="K22" s="26"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="38"/>
       <c r="L22" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M22" s="52" t="s">
+      <c r="M22" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="N22" s="53"/>
+      <c r="N22" s="26"/>
       <c r="O22" s="22" t="s">
         <v>76</v>
       </c>
@@ -1966,25 +1966,25 @@
       <c r="E23" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="52" t="s">
+      <c r="F23" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="G23" s="53"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="J23" s="27"/>
-      <c r="K23" s="26"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="38"/>
       <c r="L23" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M23" s="52" t="s">
+      <c r="M23" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="N23" s="53"/>
+      <c r="N23" s="26"/>
       <c r="O23" s="22" t="s">
         <v>84</v>
       </c>
@@ -2004,25 +2004,25 @@
       <c r="E24" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="52" t="s">
+      <c r="F24" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="53"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="I24" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="J24" s="27"/>
-      <c r="K24" s="26"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="38"/>
       <c r="L24" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M24" s="52" t="s">
+      <c r="M24" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="N24" s="53"/>
+      <c r="N24" s="26"/>
       <c r="O24" s="22" t="s">
         <v>84</v>
       </c>
@@ -2033,10 +2033,10 @@
         <v>15</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>117</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>69</v>
@@ -2044,25 +2044,25 @@
       <c r="E25" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="52" t="s">
+      <c r="F25" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="53"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="J25" s="27"/>
-      <c r="K25" s="26"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="38"/>
       <c r="L25" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M25" s="52" t="s">
+      <c r="M25" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="N25" s="53"/>
+      <c r="N25" s="26"/>
       <c r="O25" s="22" t="s">
         <v>84</v>
       </c>
@@ -2073,10 +2073,10 @@
         <v>16</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>69</v>
@@ -2084,25 +2084,25 @@
       <c r="E26" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F26" s="52" t="s">
+      <c r="F26" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G26" s="53"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="I26" s="25" t="s">
+      <c r="I26" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="J26" s="27"/>
-      <c r="K26" s="26"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38"/>
       <c r="L26" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M26" s="52" t="s">
+      <c r="M26" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="N26" s="53"/>
+      <c r="N26" s="26"/>
       <c r="O26" s="22" t="s">
         <v>84</v>
       </c>
@@ -2113,10 +2113,10 @@
         <v>17</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>69</v>
@@ -2124,25 +2124,25 @@
       <c r="E27" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="52" t="s">
+      <c r="F27" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G27" s="53"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="I27" s="25" t="s">
+      <c r="I27" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="27"/>
-      <c r="K27" s="26"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
       <c r="L27" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M27" s="52" t="s">
+      <c r="M27" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="N27" s="53"/>
+      <c r="N27" s="26"/>
       <c r="O27" s="22" t="s">
         <v>84</v>
       </c>
@@ -2156,12 +2156,12 @@
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="26"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="38"/>
       <c r="L28" s="11"/>
       <c r="M28" s="13"/>
       <c r="N28" s="14"/>
@@ -2176,12 +2176,12 @@
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="26"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="38"/>
       <c r="L29" s="11"/>
       <c r="M29" s="13"/>
       <c r="N29" s="14"/>
@@ -2194,77 +2194,144 @@
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="55"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="62"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="55"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="62"/>
       <c r="L30" s="11"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="55"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="62"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="42"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="51"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="45"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="54"/>
     </row>
     <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="46"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="48"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="57"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Vln4kLHNrPE5eXmSRxwpaoOgk+NdY5kkdXg5F3DryJEiCloIcH+CL6/DimaAhsLHcpp+qI6jQcS+VLbUc5sv2Q==" saltValue="RxwMrUzPvXEZxv7i+HpXDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="83">
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="A31:P33"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="M27:N27"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="I10:K10"/>
@@ -2281,73 +2348,6 @@
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="M13:N13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="A31:P33"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>

--- a/TM.RestHour/Uploads/IMOcrewlistForm5.xlsx
+++ b/TM.RestHour/Uploads/IMOcrewlistForm5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12134E26-5CDD-41D1-92E4-FEF8CF0619E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A5631F-54BA-49D3-BF00-48181C9A67B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Arrival</t>
   </si>
@@ -113,16 +113,19 @@
     <t>Page no.</t>
   </si>
   <si>
-    <t>20. Date and signature by master, authorized agent or officer</t>
-  </si>
-  <si>
     <t>18. Service Term - From</t>
   </si>
   <si>
     <t>19. Service Term - To</t>
   </si>
   <si>
-    <t>X</t>
+    <t>20. Department</t>
+  </si>
+  <si>
+    <t>21. Date and signature by master, authorized agent or officer</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t>OSX2</t>
@@ -143,16 +146,19 @@
     <t>SINGAPURE</t>
   </si>
   <si>
-    <t xml:space="preserve"> Master</t>
-  </si>
-  <si>
-    <t>Indian</t>
-  </si>
-  <si>
-    <t>21.07.1973</t>
-  </si>
-  <si>
-    <t>Kolkata</t>
+    <t>Das</t>
+  </si>
+  <si>
+    <t>Aninda</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>21.11.1990</t>
+  </si>
+  <si>
+    <t>Barrackpur</t>
   </si>
   <si>
     <t>Male</t>
@@ -164,22 +170,22 @@
     <t>Z2453211</t>
   </si>
   <si>
+    <t>West Bangal</t>
+  </si>
+  <si>
+    <t>11.10.2023</t>
+  </si>
+  <si>
+    <t>31.12.2020</t>
+  </si>
+  <si>
+    <t>22.10.2023</t>
+  </si>
+  <si>
     <t>India</t>
   </si>
   <si>
-    <t>21.12.2020</t>
-  </si>
-  <si>
-    <t>21.11.2020</t>
-  </si>
-  <si>
-    <t>11.10.2023</t>
-  </si>
-  <si>
-    <t>mass</t>
-  </si>
-  <si>
-    <t>Crist-26</t>
+    <t>Engine Department2</t>
   </si>
 </sst>
 </file>
@@ -253,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -406,39 +412,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -511,35 +489,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -548,12 +501,99 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -562,23 +602,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -586,12 +617,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -609,106 +634,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1048,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16:N16"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1071,69 +996,69 @@
     <col min="13" max="13" width="8" customWidth="1"/>
     <col min="14" max="14" width="5.5546875" customWidth="1"/>
     <col min="15" max="15" width="10.88671875" customWidth="1"/>
-    <col min="16" max="18" width="12.33203125" customWidth="1"/>
+    <col min="16" max="19" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-    </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
       <c r="F5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="72"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="50"/>
+      <c r="L5" s="68"/>
       <c r="M5" s="2"/>
       <c r="N5" s="13"/>
       <c r="O5" s="12" t="s">
@@ -1142,120 +1067,125 @@
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
-    </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="56" t="s">
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="56" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="48">
+      <c r="G6" s="50"/>
+      <c r="H6" s="32">
         <v>8618217</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="65" t="s">
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="33"/>
-      <c r="O6" s="65" t="s">
+      <c r="M6" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="27"/>
+      <c r="O6" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="33">
+      <c r="P6" s="27">
         <v>2</v>
       </c>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-    </row>
-    <row r="7" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-    </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56" t="s">
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="56" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="57"/>
-      <c r="H8" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="65" t="s">
+      <c r="G8" s="50"/>
+      <c r="H8" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="33"/>
-      <c r="O8" s="65" t="s">
+      <c r="M8" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="27"/>
+      <c r="O8" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-    </row>
-    <row r="9" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-    </row>
-    <row r="10" spans="1:18" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P8" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+    </row>
+    <row r="9" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+    </row>
+    <row r="10" spans="1:19" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
@@ -1271,25 +1201,25 @@
       <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="85"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="84" t="s">
+      <c r="I10" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="86"/>
-      <c r="K10" s="85"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="30"/>
       <c r="L10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="84" t="s">
+      <c r="M10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="85"/>
+      <c r="N10" s="30"/>
       <c r="O10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1297,61 +1227,67 @@
         <v>19</v>
       </c>
       <c r="Q10" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="S10" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="26">
+    <row r="11" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
         <v>1</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="40"/>
+      <c r="O11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="R11" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="80"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="83"/>
-      <c r="O11" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="P11" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q11" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="R11" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S11" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -1359,21 +1295,22 @@
       <c r="C12" s="15"/>
       <c r="D12" s="19"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="35"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="37"/>
-      <c r="K12" s="36"/>
+      <c r="K12" s="38"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="43"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="40"/>
       <c r="O12" s="18"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="26"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>3</v>
       </c>
@@ -1381,21 +1318,22 @@
       <c r="C13" s="15"/>
       <c r="D13" s="19"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="35"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="37"/>
-      <c r="K13" s="36"/>
+      <c r="K13" s="38"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="43"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="40"/>
       <c r="O13" s="18"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="23"/>
       <c r="R13" s="23"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S13" s="26"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>4</v>
       </c>
@@ -1403,21 +1341,22 @@
       <c r="C14" s="16"/>
       <c r="D14" s="20"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="35"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="37"/>
-      <c r="K14" s="36"/>
+      <c r="K14" s="38"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="76"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="42"/>
       <c r="O14" s="18"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="23"/>
       <c r="R14" s="23"/>
-    </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S14" s="26"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>5</v>
       </c>
@@ -1425,21 +1364,22 @@
       <c r="C15" s="16"/>
       <c r="D15" s="19"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="35"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="37"/>
-      <c r="K15" s="36"/>
+      <c r="K15" s="38"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="76"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="42"/>
       <c r="O15" s="18"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="23"/>
       <c r="R15" s="23"/>
-    </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S15" s="26"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>6</v>
       </c>
@@ -1447,21 +1387,22 @@
       <c r="C16" s="17"/>
       <c r="D16" s="19"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="35"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="37"/>
-      <c r="K16" s="36"/>
+      <c r="K16" s="38"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="72"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="46"/>
       <c r="O16" s="18"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="23"/>
       <c r="R16" s="23"/>
-    </row>
-    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S16" s="26"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>7</v>
       </c>
@@ -1469,21 +1410,22 @@
       <c r="C17" s="17"/>
       <c r="D17" s="19"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="35"/>
+      <c r="I17" s="36"/>
       <c r="J17" s="37"/>
-      <c r="K17" s="36"/>
+      <c r="K17" s="38"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="72"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="46"/>
       <c r="O17" s="18"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
-    </row>
-    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S17" s="26"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>8</v>
       </c>
@@ -1491,21 +1433,22 @@
       <c r="C18" s="17"/>
       <c r="D18" s="19"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="74"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="35"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="37"/>
-      <c r="K18" s="36"/>
+      <c r="K18" s="38"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="74"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="48"/>
       <c r="O18" s="18"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="23"/>
       <c r="R18" s="23"/>
-    </row>
-    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S18" s="26"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>9</v>
       </c>
@@ -1513,21 +1456,22 @@
       <c r="C19" s="14"/>
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="35"/>
+      <c r="I19" s="36"/>
       <c r="J19" s="37"/>
-      <c r="K19" s="36"/>
+      <c r="K19" s="38"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="43"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="40"/>
       <c r="O19" s="18"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="23"/>
       <c r="R19" s="23"/>
-    </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S19" s="26"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>10</v>
       </c>
@@ -1535,21 +1479,22 @@
       <c r="C20" s="14"/>
       <c r="D20" s="19"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="35"/>
+      <c r="I20" s="36"/>
       <c r="J20" s="37"/>
-      <c r="K20" s="36"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="43"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="40"/>
       <c r="O20" s="18"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="23"/>
       <c r="R20" s="23"/>
-    </row>
-    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S20" s="26"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>11</v>
       </c>
@@ -1557,21 +1502,22 @@
       <c r="C21" s="14"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="35"/>
+      <c r="I21" s="36"/>
       <c r="J21" s="37"/>
-      <c r="K21" s="36"/>
+      <c r="K21" s="38"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="39"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="62"/>
       <c r="O21" s="18"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="23"/>
       <c r="R21" s="23"/>
-    </row>
-    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S21" s="26"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>12</v>
       </c>
@@ -1579,21 +1525,22 @@
       <c r="C22" s="14"/>
       <c r="D22" s="19"/>
       <c r="E22" s="21"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="62"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="35"/>
+      <c r="I22" s="36"/>
       <c r="J22" s="37"/>
-      <c r="K22" s="36"/>
+      <c r="K22" s="38"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="39"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="62"/>
       <c r="O22" s="18"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="23"/>
       <c r="R22" s="23"/>
-    </row>
-    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S22" s="26"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>13</v>
       </c>
@@ -1601,21 +1548,22 @@
       <c r="C23" s="14"/>
       <c r="D23" s="19"/>
       <c r="E23" s="18"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="62"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="35"/>
+      <c r="I23" s="36"/>
       <c r="J23" s="37"/>
-      <c r="K23" s="36"/>
+      <c r="K23" s="38"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="39"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="62"/>
       <c r="O23" s="18"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="23"/>
       <c r="R23" s="23"/>
-    </row>
-    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S23" s="26"/>
+    </row>
+    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>14</v>
       </c>
@@ -1623,21 +1571,22 @@
       <c r="C24" s="14"/>
       <c r="D24" s="19"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="62"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="35"/>
+      <c r="I24" s="36"/>
       <c r="J24" s="37"/>
-      <c r="K24" s="36"/>
+      <c r="K24" s="38"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="39"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="62"/>
       <c r="O24" s="18"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="23"/>
       <c r="R24" s="23"/>
-    </row>
-    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S24" s="26"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>15</v>
       </c>
@@ -1645,21 +1594,22 @@
       <c r="C25" s="6"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="35"/>
+      <c r="I25" s="36"/>
       <c r="J25" s="37"/>
-      <c r="K25" s="36"/>
+      <c r="K25" s="38"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="38"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="23"/>
       <c r="R25" s="23"/>
-    </row>
-    <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S25" s="26"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>16</v>
       </c>
@@ -1667,21 +1617,22 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="35"/>
+      <c r="I26" s="36"/>
       <c r="J26" s="37"/>
-      <c r="K26" s="36"/>
+      <c r="K26" s="38"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="38"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="23"/>
       <c r="R26" s="23"/>
-    </row>
-    <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S26" s="26"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>17</v>
       </c>
@@ -1689,12 +1640,12 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="38"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="35"/>
+      <c r="I27" s="36"/>
       <c r="J27" s="37"/>
-      <c r="K27" s="36"/>
+      <c r="K27" s="38"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
       <c r="N27" s="3"/>
@@ -1702,8 +1653,9 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="23"/>
       <c r="R27" s="23"/>
-    </row>
-    <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S27" s="26"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>18</v>
       </c>
@@ -1711,12 +1663,12 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="35"/>
+      <c r="I28" s="36"/>
       <c r="J28" s="37"/>
-      <c r="K28" s="36"/>
+      <c r="K28" s="38"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
       <c r="N28" s="3"/>
@@ -1724,8 +1676,9 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="23"/>
       <c r="R28" s="23"/>
-    </row>
-    <row r="29" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S28" s="26"/>
+    </row>
+    <row r="29" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>19</v>
       </c>
@@ -1733,12 +1686,12 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="35"/>
+      <c r="I29" s="36"/>
       <c r="J29" s="37"/>
-      <c r="K29" s="36"/>
+      <c r="K29" s="38"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
       <c r="N29" s="3"/>
@@ -1746,114 +1699,125 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="23"/>
       <c r="R29" s="23"/>
-    </row>
-    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S29" s="26"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="69"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="64"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="69"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="64"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="69"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="64"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="23"/>
       <c r="R30" s="23"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="58"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="59"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="61"/>
+      <c r="S30" s="26"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="51"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="52"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="54"/>
     </row>
     <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="62"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="64"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="H6:K7"/>
-    <mergeCell ref="H8:K9"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="M18:N18"/>
+  <mergeCells count="88">
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="A31:P33"/>
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="A6:B7"/>
@@ -1870,47 +1834,40 @@
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="I30:K30"/>
     <mergeCell ref="M30:N30"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="H6:K7"/>
+    <mergeCell ref="H8:K9"/>
+    <mergeCell ref="M8:N9"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="R8:R9"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>

--- a/TM.RestHour/Uploads/IMOcrewlistForm5.xlsx
+++ b/TM.RestHour/Uploads/IMOcrewlistForm5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A5631F-54BA-49D3-BF00-48181C9A67B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16006AFD-E92D-465A-8DFE-628F8D9CB74B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Arrival</t>
   </si>
@@ -125,6 +125,18 @@
     <t>21. Date and signature by master, authorized agent or officer</t>
   </si>
   <si>
+    <t xml:space="preserve">Department </t>
+  </si>
+  <si>
+    <t>Deck</t>
+  </si>
+  <si>
+    <t>Catering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can add more departments in the highlighted region </t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
@@ -155,6 +167,9 @@
     <t>Master</t>
   </si>
   <si>
+    <t>India</t>
+  </si>
+  <si>
     <t>21.11.1990</t>
   </si>
   <si>
@@ -180,12 +195,6 @@
   </si>
   <si>
     <t>22.10.2023</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Engine Department2</t>
   </si>
 </sst>
 </file>
@@ -245,7 +254,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,8 +267,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -412,11 +427,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -494,6 +533,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -536,28 +592,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -634,6 +684,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -973,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -996,69 +1076,71 @@
     <col min="13" max="13" width="8" customWidth="1"/>
     <col min="14" max="14" width="5.5546875" customWidth="1"/>
     <col min="15" max="15" width="10.88671875" customWidth="1"/>
-    <col min="16" max="19" width="12.33203125" customWidth="1"/>
+    <col min="16" max="20" width="12.33203125" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" customWidth="1"/>
+    <col min="24" max="24" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-    </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+    </row>
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="77"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="73" t="s">
+      <c r="K5" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="68"/>
+      <c r="L5" s="73"/>
       <c r="M5" s="2"/>
       <c r="N5" s="13"/>
       <c r="O5" s="12" t="s">
@@ -1068,124 +1150,129 @@
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
+      <c r="T5" s="29"/>
+    </row>
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="49" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="32">
+      <c r="G6" s="55"/>
+      <c r="H6" s="39">
         <v>8618217</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="58" t="s">
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="27"/>
-      <c r="O6" s="58" t="s">
+      <c r="M6" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="34"/>
+      <c r="O6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="34">
         <v>2</v>
       </c>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-    </row>
-    <row r="7" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="55"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49" t="s">
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="28"/>
+    </row>
+    <row r="7" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="28"/>
+    </row>
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="49" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="58" t="s">
+      <c r="G8" s="55"/>
+      <c r="H8" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="27"/>
-      <c r="O8" s="58" t="s">
+      <c r="M8" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="34"/>
+      <c r="O8" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-    </row>
-    <row r="9" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-    </row>
-    <row r="10" spans="1:19" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P8" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="28"/>
+    </row>
+    <row r="9" spans="1:24" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="60"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="28"/>
+    </row>
+    <row r="10" spans="1:24" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
@@ -1201,25 +1288,25 @@
       <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="30"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="30"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="37"/>
       <c r="L10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="29" t="s">
+      <c r="M10" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="30"/>
+      <c r="N10" s="37"/>
       <c r="O10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1235,82 +1322,90 @@
       <c r="S10" s="25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T10" s="27"/>
+      <c r="W10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>1</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="18" t="s">
+      <c r="B11" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="86"/>
+      <c r="H11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="40"/>
-      <c r="O11" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q11" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="R11" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="S11" s="26" t="s">
+      <c r="N11" s="88"/>
+      <c r="O11" s="84" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P11" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="R11" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="30"/>
+      <c r="W11" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="26"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="87"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+    </row>
+    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>3</v>
       </c>
@@ -1318,22 +1413,26 @@
       <c r="C13" s="15"/>
       <c r="D13" s="19"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="38"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="45"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="40"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="47"/>
       <c r="O13" s="18"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="23"/>
       <c r="R13" s="23"/>
       <c r="S13" s="26"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T13" s="30"/>
+      <c r="W13" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>4</v>
       </c>
@@ -1341,22 +1440,27 @@
       <c r="C14" s="16"/>
       <c r="D14" s="20"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="38"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="45"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="42"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="53"/>
       <c r="O14" s="18"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="23"/>
       <c r="R14" s="23"/>
       <c r="S14" s="26"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T14" s="30"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="79" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>5</v>
       </c>
@@ -1364,22 +1468,25 @@
       <c r="C15" s="16"/>
       <c r="D15" s="19"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="38"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="45"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="42"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="53"/>
       <c r="O15" s="18"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="23"/>
       <c r="R15" s="23"/>
       <c r="S15" s="26"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T15" s="30"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="79"/>
+    </row>
+    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>6</v>
       </c>
@@ -1387,22 +1494,25 @@
       <c r="C16" s="17"/>
       <c r="D16" s="19"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="38"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="45"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="46"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="51"/>
       <c r="O16" s="18"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="23"/>
       <c r="R16" s="23"/>
       <c r="S16" s="26"/>
-    </row>
-    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T16" s="30"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="79"/>
+    </row>
+    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>7</v>
       </c>
@@ -1410,22 +1520,25 @@
       <c r="C17" s="17"/>
       <c r="D17" s="19"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="38"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="46"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="51"/>
       <c r="O17" s="18"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
       <c r="S17" s="26"/>
-    </row>
-    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T17" s="30"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="79"/>
+    </row>
+    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>8</v>
       </c>
@@ -1433,22 +1546,23 @@
       <c r="C18" s="17"/>
       <c r="D18" s="19"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="81"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="38"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="45"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="48"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="81"/>
       <c r="O18" s="18"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="23"/>
       <c r="R18" s="23"/>
       <c r="S18" s="26"/>
-    </row>
-    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T18" s="30"/>
+    </row>
+    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>9</v>
       </c>
@@ -1456,22 +1570,23 @@
       <c r="C19" s="14"/>
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="38"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="45"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="40"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="47"/>
       <c r="O19" s="18"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="23"/>
       <c r="R19" s="23"/>
       <c r="S19" s="26"/>
-    </row>
-    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T19" s="30"/>
+    </row>
+    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>10</v>
       </c>
@@ -1479,22 +1594,23 @@
       <c r="C20" s="14"/>
       <c r="D20" s="19"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="38"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="45"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="40"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="47"/>
       <c r="O20" s="18"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="23"/>
       <c r="R20" s="23"/>
       <c r="S20" s="26"/>
-    </row>
-    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T20" s="30"/>
+    </row>
+    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>11</v>
       </c>
@@ -1502,22 +1618,23 @@
       <c r="C21" s="14"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="62"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="67"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="38"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="45"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="62"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="67"/>
       <c r="O21" s="18"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="23"/>
       <c r="R21" s="23"/>
       <c r="S21" s="26"/>
-    </row>
-    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T21" s="30"/>
+    </row>
+    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>12</v>
       </c>
@@ -1525,22 +1642,23 @@
       <c r="C22" s="14"/>
       <c r="D22" s="19"/>
       <c r="E22" s="21"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="62"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="67"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="38"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="45"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="62"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="67"/>
       <c r="O22" s="18"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="23"/>
       <c r="R22" s="23"/>
       <c r="S22" s="26"/>
-    </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T22" s="30"/>
+    </row>
+    <row r="23" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>13</v>
       </c>
@@ -1548,22 +1666,23 @@
       <c r="C23" s="14"/>
       <c r="D23" s="19"/>
       <c r="E23" s="18"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="62"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="67"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="38"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="45"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="62"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="67"/>
       <c r="O23" s="18"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="23"/>
       <c r="R23" s="23"/>
       <c r="S23" s="26"/>
-    </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T23" s="30"/>
+    </row>
+    <row r="24" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>14</v>
       </c>
@@ -1571,22 +1690,23 @@
       <c r="C24" s="14"/>
       <c r="D24" s="19"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="62"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="38"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="45"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="62"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="67"/>
       <c r="O24" s="18"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="23"/>
       <c r="R24" s="23"/>
       <c r="S24" s="26"/>
-    </row>
-    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T24" s="30"/>
+    </row>
+    <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>15</v>
       </c>
@@ -1594,22 +1714,23 @@
       <c r="C25" s="6"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="38"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="45"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="38"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="45"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="38"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="45"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="23"/>
       <c r="R25" s="23"/>
       <c r="S25" s="26"/>
-    </row>
-    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T25" s="30"/>
+    </row>
+    <row r="26" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>16</v>
       </c>
@@ -1617,22 +1738,23 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="38"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="45"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="38"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="45"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="38"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="45"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="23"/>
       <c r="R26" s="23"/>
       <c r="S26" s="26"/>
-    </row>
-    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T26" s="30"/>
+    </row>
+    <row r="27" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>17</v>
       </c>
@@ -1640,12 +1762,12 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="38"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="45"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="38"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="45"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
       <c r="N27" s="3"/>
@@ -1654,8 +1776,9 @@
       <c r="Q27" s="23"/>
       <c r="R27" s="23"/>
       <c r="S27" s="26"/>
-    </row>
-    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T27" s="30"/>
+    </row>
+    <row r="28" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>18</v>
       </c>
@@ -1663,12 +1786,12 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="38"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="45"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="38"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="45"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
       <c r="N28" s="3"/>
@@ -1677,8 +1800,9 @@
       <c r="Q28" s="23"/>
       <c r="R28" s="23"/>
       <c r="S28" s="26"/>
-    </row>
-    <row r="29" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T28" s="30"/>
+    </row>
+    <row r="29" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>19</v>
       </c>
@@ -1686,12 +1810,12 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="38"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="45"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="38"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="45"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
       <c r="N29" s="3"/>
@@ -1700,92 +1824,104 @@
       <c r="Q29" s="23"/>
       <c r="R29" s="23"/>
       <c r="S29" s="26"/>
-    </row>
-    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T29" s="30"/>
+    </row>
+    <row r="30" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="64"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="69"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="64"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="69"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="64"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="69"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="23"/>
       <c r="R30" s="23"/>
       <c r="S30" s="26"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="49" t="s">
+      <c r="T30" s="30"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="51"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="52"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="54"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="56"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" s="57"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="59"/>
     </row>
     <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="55"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="57"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
+  <mergeCells count="89">
+    <mergeCell ref="X14:X17"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="M20:N20"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="F28:G28"/>
@@ -1834,15 +1970,6 @@
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="I30:K30"/>
     <mergeCell ref="M30:N30"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="M15:N15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="I16:K16"/>
     <mergeCell ref="M16:N16"/>
@@ -1869,6 +1996,11 @@
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="R8:R9"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S11:S30" xr:uid="{38BF65C4-1EDC-4A47-9A79-AB09A0409BAD}">
+      <formula1>$W$11:$W$17</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/TM.RestHour/Uploads/IMOcrewlistForm5.xlsx
+++ b/TM.RestHour/Uploads/IMOcrewlistForm5.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16006AFD-E92D-465A-8DFE-628F8D9CB74B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1186BF41-49F8-4EA0-A508-E7B876C59C23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,40 +158,40 @@
     <t>SINGAPURE</t>
   </si>
   <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Passport</t>
+  </si>
+  <si>
+    <t>West Bangal</t>
+  </si>
+  <si>
     <t>Das</t>
   </si>
   <si>
-    <t>Aninda</t>
-  </si>
-  <si>
-    <t>Master</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>21.11.1990</t>
-  </si>
-  <si>
-    <t>Barrackpur</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Passport</t>
-  </si>
-  <si>
-    <t>Z2453211</t>
-  </si>
-  <si>
-    <t>West Bangal</t>
-  </si>
-  <si>
-    <t>11.10.2023</t>
-  </si>
-  <si>
-    <t>31.12.2020</t>
+    <t>Sojib</t>
+  </si>
+  <si>
+    <t>Ichapur</t>
+  </si>
+  <si>
+    <t>Z24532652</t>
+  </si>
+  <si>
+    <t>11.10.2020</t>
+  </si>
+  <si>
+    <t>21.11.1996</t>
+  </si>
+  <si>
+    <t>07.02.2423</t>
   </si>
   <si>
     <t>22.10.2023</t>
@@ -550,6 +550,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -571,10 +580,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -586,22 +595,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -692,27 +713,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1082,65 +1082,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="73"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="74"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="75" t="s">
+      <c r="G5" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="77"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="84"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="78" t="s">
+      <c r="K5" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="73"/>
+      <c r="L5" s="80"/>
       <c r="M5" s="2"/>
       <c r="N5" s="13"/>
       <c r="O5" s="12" t="s">
@@ -1153,123 +1153,123 @@
       <c r="T5" s="29"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="39" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="54" t="s">
+      <c r="D6" s="42"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="39">
+      <c r="G6" s="62"/>
+      <c r="H6" s="42">
         <v>8618217</v>
       </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="63" t="s">
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="65" t="s">
+      <c r="M6" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="34"/>
-      <c r="O6" s="63" t="s">
+      <c r="N6" s="37"/>
+      <c r="O6" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="34">
+      <c r="P6" s="37">
         <v>2</v>
       </c>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
       <c r="T6" s="28"/>
     </row>
     <row r="7" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
       <c r="T7" s="28"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="39" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="54" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="39" t="s">
+      <c r="G8" s="62"/>
+      <c r="H8" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="63" t="s">
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="39" t="s">
+      <c r="M8" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="34"/>
-      <c r="O8" s="63" t="s">
+      <c r="N8" s="37"/>
+      <c r="O8" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="34" t="s">
+      <c r="P8" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
       <c r="T8" s="28"/>
     </row>
     <row r="9" spans="1:24" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="60"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
       <c r="T9" s="28"/>
     </row>
     <row r="10" spans="1:24" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1288,25 +1288,25 @@
       <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="37"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="37"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="40"/>
       <c r="L10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="36" t="s">
+      <c r="M10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="37"/>
+      <c r="N10" s="40"/>
       <c r="O10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1331,42 +1331,42 @@
       <c r="A11" s="5">
         <v>1</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="E11" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="F11" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="45"/>
+      <c r="H11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="84" t="s">
+      <c r="J11" s="47"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="85" t="s">
+      <c r="M11" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="50"/>
+      <c r="O11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="86"/>
-      <c r="H11" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="N11" s="88"/>
-      <c r="O11" s="84" t="s">
+      <c r="P11" s="33" t="s">
         <v>49</v>
-      </c>
-      <c r="P11" s="33" t="s">
-        <v>50</v>
       </c>
       <c r="Q11" s="33" t="s">
         <v>51</v>
@@ -1386,20 +1386,20 @@
       <c r="A12" s="5">
         <v>2</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="86"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="45"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="48"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="84"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="36"/>
       <c r="P12" s="33"/>
       <c r="Q12" s="33"/>
       <c r="R12" s="33"/>
@@ -1413,15 +1413,15 @@
       <c r="C13" s="15"/>
       <c r="D13" s="19"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="56"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="47"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="58"/>
       <c r="O13" s="18"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="23"/>
@@ -1440,15 +1440,15 @@
       <c r="C14" s="16"/>
       <c r="D14" s="20"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="45"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="53"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="60"/>
       <c r="O14" s="18"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="23"/>
@@ -1456,7 +1456,7 @@
       <c r="S14" s="26"/>
       <c r="T14" s="30"/>
       <c r="W14" s="32"/>
-      <c r="X14" s="79" t="s">
+      <c r="X14" s="86" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1468,15 +1468,15 @@
       <c r="C15" s="16"/>
       <c r="D15" s="19"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="45"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="48"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="53"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="18"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="23"/>
@@ -1484,7 +1484,7 @@
       <c r="S15" s="26"/>
       <c r="T15" s="30"/>
       <c r="W15" s="32"/>
-      <c r="X15" s="79"/>
+      <c r="X15" s="86"/>
     </row>
     <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
@@ -1494,15 +1494,15 @@
       <c r="C16" s="17"/>
       <c r="D16" s="19"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="45"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="48"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="51"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="54"/>
       <c r="O16" s="18"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="23"/>
@@ -1510,7 +1510,7 @@
       <c r="S16" s="26"/>
       <c r="T16" s="30"/>
       <c r="W16" s="32"/>
-      <c r="X16" s="79"/>
+      <c r="X16" s="86"/>
     </row>
     <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
@@ -1520,15 +1520,15 @@
       <c r="C17" s="17"/>
       <c r="D17" s="19"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="45"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="48"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="51"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="54"/>
       <c r="O17" s="18"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="23"/>
@@ -1536,7 +1536,7 @@
       <c r="S17" s="26"/>
       <c r="T17" s="30"/>
       <c r="W17" s="32"/>
-      <c r="X17" s="79"/>
+      <c r="X17" s="86"/>
     </row>
     <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
@@ -1546,15 +1546,15 @@
       <c r="C18" s="17"/>
       <c r="D18" s="19"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="81"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="88"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="45"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="48"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="81"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="88"/>
       <c r="O18" s="18"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="23"/>
@@ -1570,15 +1570,15 @@
       <c r="C19" s="14"/>
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="45"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="48"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="47"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="58"/>
       <c r="O19" s="18"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="23"/>
@@ -1594,15 +1594,15 @@
       <c r="C20" s="14"/>
       <c r="D20" s="19"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="45"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="47"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="58"/>
       <c r="O20" s="18"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="23"/>
@@ -1618,15 +1618,15 @@
       <c r="C21" s="14"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="67"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="74"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="45"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="67"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="74"/>
       <c r="O21" s="18"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="23"/>
@@ -1642,15 +1642,15 @@
       <c r="C22" s="14"/>
       <c r="D22" s="19"/>
       <c r="E22" s="21"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="74"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="45"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="48"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="67"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="74"/>
       <c r="O22" s="18"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="23"/>
@@ -1666,15 +1666,15 @@
       <c r="C23" s="14"/>
       <c r="D23" s="19"/>
       <c r="E23" s="18"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="67"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="74"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="48"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="67"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="74"/>
       <c r="O23" s="18"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="23"/>
@@ -1690,15 +1690,15 @@
       <c r="C24" s="14"/>
       <c r="D24" s="19"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="67"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="74"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="45"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="48"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="67"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="74"/>
       <c r="O24" s="18"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="23"/>
@@ -1714,15 +1714,15 @@
       <c r="C25" s="6"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="45"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="48"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="45"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="48"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="45"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="48"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="23"/>
@@ -1738,15 +1738,15 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="45"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="48"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="45"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="48"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="45"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="48"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="23"/>
@@ -1762,12 +1762,12 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="45"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="48"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
       <c r="N27" s="3"/>
@@ -1786,12 +1786,12 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="45"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="45"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="48"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
       <c r="N28" s="3"/>
@@ -1810,12 +1810,12 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="45"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="48"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="45"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="48"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
       <c r="N29" s="3"/>
@@ -1832,15 +1832,15 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="69"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="76"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="69"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="76"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="69"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="76"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="23"/>
@@ -1849,60 +1849,60 @@
       <c r="T30" s="30"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="56"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="63"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="57"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="59"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="65"/>
+      <c r="P32" s="66"/>
     </row>
     <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="60"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="62"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="89">

--- a/TM.RestHour/Uploads/IMOcrewlistForm5.xlsx
+++ b/TM.RestHour/Uploads/IMOcrewlistForm5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1186BF41-49F8-4EA0-A508-E7B876C59C23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1725DE2-3849-45FA-8C2B-03B42FC1040A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,28 +173,28 @@
     <t>West Bangal</t>
   </si>
   <si>
-    <t>Das</t>
-  </si>
-  <si>
-    <t>Sojib</t>
-  </si>
-  <si>
     <t>Ichapur</t>
   </si>
   <si>
-    <t>Z24532652</t>
-  </si>
-  <si>
     <t>11.10.2020</t>
   </si>
   <si>
     <t>21.11.1996</t>
   </si>
   <si>
-    <t>07.02.2423</t>
-  </si>
-  <si>
     <t>22.10.2023</t>
+  </si>
+  <si>
+    <t>Dasgupta</t>
+  </si>
+  <si>
+    <t>Z24532688</t>
+  </si>
+  <si>
+    <t>07.02.2021</t>
+  </si>
+  <si>
+    <t>Bingshu</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1332,10 +1332,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>40</v>
@@ -1344,11 +1344,11 @@
         <v>41</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G11" s="45"/>
       <c r="H11" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I11" s="46" t="s">
         <v>42</v>
@@ -1359,23 +1359,23 @@
         <v>43</v>
       </c>
       <c r="M11" s="49" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N11" s="50"/>
       <c r="O11" s="36" t="s">
         <v>44</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="33" t="s">
         <v>51</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="S11" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T11" s="30"/>
       <c r="W11" s="31" t="s">

--- a/TM.RestHour/Uploads/IMOcrewlistForm5.xlsx
+++ b/TM.RestHour/Uploads/IMOcrewlistForm5.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0E8DF7-B97E-4189-9D9D-65072C197970}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB99A561-04F2-415E-9278-1142FE9AE9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="108" yWindow="96" windowWidth="22932" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,11 +40,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Fill up approximate signoff date as the contract.</t>
+Kindly fill up contract date.</t>
         </r>
       </text>
     </comment>
-    <comment ref="R11" authorId="0" shapeId="0" xr:uid="{69F53219-FDF0-4BBE-BFCF-F1A1911D4EA7}">
+    <comment ref="R11" authorId="0" shapeId="0" xr:uid="{7B5C5A68-5CC7-41A9-8004-87DE64F84DB9}">
       <text>
         <r>
           <rPr>
@@ -64,11 +64,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Fill up approximate signoff date as the contract.</t>
+Kindly fill up contract date.</t>
         </r>
       </text>
     </comment>
-    <comment ref="R12" authorId="0" shapeId="0" xr:uid="{CA0EE24C-F27A-41A9-8622-D99AB34A61C1}">
+    <comment ref="R12" authorId="0" shapeId="0" xr:uid="{A811EBF8-5884-46EC-8BDD-6556EBD201BE}">
       <text>
         <r>
           <rPr>
@@ -88,11 +88,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Fill up approximate signoff date as the contract.</t>
+Kindly fill up contract date.</t>
         </r>
       </text>
     </comment>
-    <comment ref="R13" authorId="0" shapeId="0" xr:uid="{DB3EA379-5772-497B-BE82-7CF83BA45660}">
+    <comment ref="R13" authorId="0" shapeId="0" xr:uid="{0DC2D6E1-1F3A-46F1-BEF9-73AC226193C2}">
       <text>
         <r>
           <rPr>
@@ -112,11 +112,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Fill up approximate signoff date as the contract.</t>
+Kindly fill up contract date.</t>
         </r>
       </text>
     </comment>
-    <comment ref="R14" authorId="0" shapeId="0" xr:uid="{682EF7F6-A646-4B04-BB00-5D03BC547DC6}">
+    <comment ref="R14" authorId="0" shapeId="0" xr:uid="{F8D9BC48-82F0-4552-8DDB-39D751C2D4FD}">
       <text>
         <r>
           <rPr>
@@ -136,11 +136,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Fill up approximate signoff date as the contract.</t>
+Kindly fill up contract date.</t>
         </r>
       </text>
     </comment>
-    <comment ref="R15" authorId="0" shapeId="0" xr:uid="{C388B909-2D45-4FA9-880E-6A5532A06D63}">
+    <comment ref="R15" authorId="0" shapeId="0" xr:uid="{09B33A37-DD93-4E96-BAF7-A6828ED48962}">
       <text>
         <r>
           <rPr>
@@ -160,11 +160,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Fill up approximate signoff date as the contract.</t>
+Kindly fill up contract date.</t>
         </r>
       </text>
     </comment>
-    <comment ref="R16" authorId="0" shapeId="0" xr:uid="{239C5108-87B4-46E7-8F14-D0BD7E146A0F}">
+    <comment ref="R16" authorId="0" shapeId="0" xr:uid="{97CFBD0A-B34C-4786-87D6-1F50FE70B8B5}">
       <text>
         <r>
           <rPr>
@@ -184,11 +184,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Fill up approximate signoff date as the contract.</t>
+Kindly fill up contract date.</t>
         </r>
       </text>
     </comment>
-    <comment ref="R17" authorId="0" shapeId="0" xr:uid="{E905C067-A472-4D23-AF36-BDCB17A8AAD5}">
+    <comment ref="R17" authorId="0" shapeId="0" xr:uid="{0DFC5000-2339-43F2-BA92-1F765D395FE1}">
       <text>
         <r>
           <rPr>
@@ -208,11 +208,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Fill up approximate signoff date as the contract.</t>
+Kindly fill up contract date.</t>
         </r>
       </text>
     </comment>
-    <comment ref="R18" authorId="0" shapeId="0" xr:uid="{05D25A87-1B54-4F8B-B316-F8C89B02C09C}">
+    <comment ref="R18" authorId="0" shapeId="0" xr:uid="{7777E49B-E6EC-483C-A589-C435000F4A1A}">
       <text>
         <r>
           <rPr>
@@ -232,11 +232,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Fill up approximate signoff date as the contract.</t>
+Kindly fill up contract date.</t>
         </r>
       </text>
     </comment>
-    <comment ref="R19" authorId="0" shapeId="0" xr:uid="{6D5EC1FC-1346-40CC-97D9-4E337E4D2FAB}">
+    <comment ref="R19" authorId="0" shapeId="0" xr:uid="{48AEF79E-EE81-4E55-935D-79DA5E998129}">
       <text>
         <r>
           <rPr>
@@ -256,11 +256,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Fill up approximate signoff date as the contract.</t>
+Kindly fill up contract date.</t>
         </r>
       </text>
     </comment>
-    <comment ref="R20" authorId="0" shapeId="0" xr:uid="{F2BBE92D-4148-4912-99CB-857587A4C9FD}">
+    <comment ref="R20" authorId="0" shapeId="0" xr:uid="{8D7A7B82-CC69-41A4-8F0D-4BE48EAB542C}">
       <text>
         <r>
           <rPr>
@@ -280,11 +280,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Fill up approximate signoff date as the contract.</t>
+Kindly fill up contract date.</t>
         </r>
       </text>
     </comment>
-    <comment ref="R21" authorId="0" shapeId="0" xr:uid="{18623AA6-6809-4AA0-96C7-ED162CB263E8}">
+    <comment ref="R21" authorId="0" shapeId="0" xr:uid="{8375AF1E-CB17-4F5C-85FD-08B8472485C2}">
       <text>
         <r>
           <rPr>
@@ -304,11 +304,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Fill up approximate signoff date as the contract.</t>
+Kindly fill up contract date.</t>
         </r>
       </text>
     </comment>
-    <comment ref="R22" authorId="0" shapeId="0" xr:uid="{EA88CDE0-AC39-4C3D-A95A-88E8CFAAE26E}">
+    <comment ref="R22" authorId="0" shapeId="0" xr:uid="{48D381C9-E22F-4392-AB81-617B329C355C}">
       <text>
         <r>
           <rPr>
@@ -328,11 +328,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Fill up approximate signoff date as the contract.</t>
+Kindly fill up contract date.</t>
         </r>
       </text>
     </comment>
-    <comment ref="R23" authorId="0" shapeId="0" xr:uid="{BF2B40AB-0BD8-4403-9C71-B05B2EE0BC44}">
+    <comment ref="R23" authorId="0" shapeId="0" xr:uid="{629E8787-BF71-484B-BF14-4FB09CEDF4D0}">
       <text>
         <r>
           <rPr>
@@ -352,11 +352,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Fill up approximate signoff date as the contract.</t>
+Kindly fill up contract date.</t>
         </r>
       </text>
     </comment>
-    <comment ref="R24" authorId="0" shapeId="0" xr:uid="{0A95E535-1CEA-4EA5-9AC4-07CB3824144D}">
+    <comment ref="R24" authorId="0" shapeId="0" xr:uid="{CF32F790-12D8-4A57-A9B8-19D4454A38E8}">
       <text>
         <r>
           <rPr>
@@ -376,11 +376,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Fill up approximate signoff date as the contract.</t>
+Kindly fill up contract date.</t>
         </r>
       </text>
     </comment>
-    <comment ref="R25" authorId="0" shapeId="0" xr:uid="{7FACBFFA-5B43-489F-A68D-B3877D54E8CF}">
+    <comment ref="R25" authorId="0" shapeId="0" xr:uid="{915B00EF-7CD9-48AF-8687-31181700CE0D}">
       <text>
         <r>
           <rPr>
@@ -400,11 +400,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Fill up approximate signoff date as the contract.</t>
+Kindly fill up contract date.</t>
         </r>
       </text>
     </comment>
-    <comment ref="R26" authorId="0" shapeId="0" xr:uid="{5EEA024C-942A-446A-AEE2-EDF43306EB3E}">
+    <comment ref="R26" authorId="0" shapeId="0" xr:uid="{DB884CC2-90EA-4D49-8A3B-F6C161E9C563}">
       <text>
         <r>
           <rPr>
@@ -424,11 +424,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Fill up approximate signoff date as the contract.</t>
+Kindly fill up contract date.</t>
         </r>
       </text>
     </comment>
-    <comment ref="R27" authorId="0" shapeId="0" xr:uid="{B4EABB72-E9B4-45D5-9A11-01A2654195DA}">
+    <comment ref="R27" authorId="0" shapeId="0" xr:uid="{9D83B59F-B4E2-4D31-86D0-F21A06CEEC94}">
       <text>
         <r>
           <rPr>
@@ -448,11 +448,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Fill up approximate signoff date as the contract.</t>
+Kindly fill up contract date.</t>
         </r>
       </text>
     </comment>
-    <comment ref="R28" authorId="0" shapeId="0" xr:uid="{74750676-6999-4930-A87B-BACABC3D8B96}">
+    <comment ref="R28" authorId="0" shapeId="0" xr:uid="{5EDAD03C-3B4E-48D1-8230-ED027E48FD44}">
       <text>
         <r>
           <rPr>
@@ -472,11 +472,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Fill up approximate signoff date as the contract.</t>
+Kindly fill up contract date.</t>
         </r>
       </text>
     </comment>
-    <comment ref="R29" authorId="0" shapeId="0" xr:uid="{87643151-8204-486A-ACFF-B53BC71F2367}">
+    <comment ref="R29" authorId="0" shapeId="0" xr:uid="{10C61D2F-CBB2-41FD-87C1-3DC5C40A0BAC}">
       <text>
         <r>
           <rPr>
@@ -496,11 +496,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Fill up approximate signoff date as the contract.</t>
+Kindly fill up contract date.</t>
         </r>
       </text>
     </comment>
-    <comment ref="R30" authorId="0" shapeId="0" xr:uid="{D874F5E8-9107-4684-A5E7-6CB803894970}">
+    <comment ref="R30" authorId="0" shapeId="0" xr:uid="{EB2AB81B-F6CF-4B9E-B370-9F9269367B7E}">
       <text>
         <r>
           <rPr>
@@ -520,7 +520,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Fill up approximate signoff date as the contract.</t>
+Kindly fill up contract date.</t>
         </r>
       </text>
     </comment>
@@ -658,43 +658,43 @@
 (dd-Mmm-yyyy)</t>
   </si>
   <si>
+    <t>test 97</t>
+  </si>
+  <si>
+    <t>cvxvcv</t>
+  </si>
+  <si>
     <t>Master</t>
   </si>
   <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Ichapur</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Passport</t>
-  </si>
-  <si>
-    <t>Z24532688</t>
-  </si>
-  <si>
-    <t>West Bangal</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>05-Nov-1987</t>
-  </si>
-  <si>
-    <t>09-Jan-2025</t>
-  </si>
-  <si>
-    <t>01-Jan-2020</t>
-  </si>
-  <si>
-    <t>01-Jan-2050</t>
-  </si>
-  <si>
-    <t>Prasenjit3</t>
+    <t>Ind</t>
+  </si>
+  <si>
+    <t>09-Jul-2000</t>
+  </si>
+  <si>
+    <t>kolkata</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>KJGH56547</t>
+  </si>
+  <si>
+    <t>Kol</t>
+  </si>
+  <si>
+    <t>09-Jul-2021</t>
+  </si>
+  <si>
+    <t>29-Jul-2000</t>
+  </si>
+  <si>
+    <t>09-Jul-2025</t>
   </si>
 </sst>
 </file>
@@ -968,7 +968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1046,156 +1046,137 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1537,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1569,63 +1550,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="70"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="59" t="s">
+      <c r="K5" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="54"/>
+      <c r="L5" s="66"/>
       <c r="M5" s="5"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7" t="s">
@@ -1638,107 +1619,107 @@
       <c r="T5" s="8"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="60" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="69" t="s">
+      <c r="G6" s="48"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="71"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="69" t="s">
+      <c r="M6" s="58"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
       <c r="T6" s="9"/>
     </row>
     <row r="7" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="66"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
       <c r="T7" s="9"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="60" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="69" t="s">
+      <c r="G8" s="48"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="52"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="69" t="s">
+      <c r="M8" s="34"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
       <c r="T8" s="9"/>
     </row>
     <row r="9" spans="1:24" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="66"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
       <c r="T9" s="9"/>
     </row>
     <row r="10" spans="1:24" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1757,25 +1738,25 @@
       <c r="E10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="77" t="s">
+      <c r="F10" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="78"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="77" t="s">
+      <c r="I10" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="79"/>
-      <c r="K10" s="78"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="32"/>
       <c r="L10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="77" t="s">
+      <c r="M10" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="78"/>
+      <c r="N10" s="32"/>
       <c r="O10" s="12" t="s">
         <v>17</v>
       </c>
@@ -1800,54 +1781,54 @@
       <c r="A11" s="14">
         <v>1</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="39"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="M11" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="37"/>
+      <c r="O11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R11" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="76"/>
-      <c r="H11" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="76"/>
-      <c r="O11" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q11" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="R11" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="S11" s="29" t="s">
+      <c r="S11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="32"/>
-      <c r="W11" s="33" t="s">
+      <c r="T11" s="18"/>
+      <c r="W11" s="19" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1859,15 +1840,15 @@
       <c r="C12" s="20"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="40"/>
       <c r="L12" s="16"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="37"/>
       <c r="O12" s="1"/>
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
@@ -1886,15 +1867,15 @@
       <c r="C13" s="20"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
       <c r="L13" s="16"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="37"/>
       <c r="O13" s="1"/>
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
@@ -1913,15 +1894,15 @@
       <c r="C14" s="21"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="40"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="46"/>
       <c r="O14" s="1"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
@@ -1929,7 +1910,7 @@
       <c r="S14" s="17"/>
       <c r="T14" s="18"/>
       <c r="W14" s="22"/>
-      <c r="X14" s="34" t="s">
+      <c r="X14" s="72" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1941,15 +1922,15 @@
       <c r="C15" s="21"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="39"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="40"/>
       <c r="L15" s="16"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="46"/>
       <c r="O15" s="1"/>
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
@@ -1957,7 +1938,7 @@
       <c r="S15" s="17"/>
       <c r="T15" s="18"/>
       <c r="W15" s="22"/>
-      <c r="X15" s="34"/>
+      <c r="X15" s="72"/>
     </row>
     <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
@@ -1967,15 +1948,15 @@
       <c r="C16" s="23"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="39"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
       <c r="L16" s="16"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="41"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="44"/>
       <c r="O16" s="1"/>
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
@@ -1983,7 +1964,7 @@
       <c r="S16" s="17"/>
       <c r="T16" s="18"/>
       <c r="W16" s="22"/>
-      <c r="X16" s="34"/>
+      <c r="X16" s="72"/>
     </row>
     <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
@@ -1993,15 +1974,15 @@
       <c r="C17" s="23"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="40"/>
       <c r="L17" s="16"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="41"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="44"/>
       <c r="O17" s="1"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
@@ -2009,7 +1990,7 @@
       <c r="S17" s="17"/>
       <c r="T17" s="18"/>
       <c r="W17" s="22"/>
-      <c r="X17" s="34"/>
+      <c r="X17" s="72"/>
     </row>
     <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
@@ -2019,15 +2000,15 @@
       <c r="C18" s="23"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="39"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="40"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="41"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="44"/>
       <c r="O18" s="1"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
@@ -2043,15 +2024,15 @@
       <c r="C19" s="15"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="39"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="40"/>
       <c r="L19" s="16"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="37"/>
       <c r="O19" s="1"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
@@ -2067,15 +2048,15 @@
       <c r="C20" s="15"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="39"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="40"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="37"/>
       <c r="O20" s="1"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
@@ -2091,15 +2072,15 @@
       <c r="C21" s="15"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="47"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="39"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="47"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="60"/>
       <c r="O21" s="1"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
@@ -2115,15 +2096,15 @@
       <c r="C22" s="15"/>
       <c r="D22" s="1"/>
       <c r="E22" s="24"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="60"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="39"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="47"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="60"/>
       <c r="O22" s="1"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
@@ -2139,15 +2120,15 @@
       <c r="C23" s="15"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="60"/>
       <c r="H23" s="16"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="39"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="40"/>
       <c r="L23" s="16"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="47"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="60"/>
       <c r="O23" s="1"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="17"/>
@@ -2163,15 +2144,15 @@
       <c r="C24" s="15"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="47"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="60"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="39"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="47"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="60"/>
       <c r="O24" s="1"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="17"/>
@@ -2187,15 +2168,15 @@
       <c r="C25" s="17"/>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="39"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="40"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="39"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="40"/>
       <c r="L25" s="17"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="39"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="40"/>
       <c r="O25" s="17"/>
       <c r="P25" s="17"/>
       <c r="Q25" s="17"/>
@@ -2211,15 +2192,15 @@
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="39"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="40"/>
       <c r="H26" s="17"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="39"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="40"/>
       <c r="L26" s="17"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="39"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="40"/>
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="17"/>
@@ -2235,12 +2216,12 @@
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="39"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="40"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="39"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="40"/>
       <c r="L27" s="17"/>
       <c r="M27" s="26"/>
       <c r="N27" s="27"/>
@@ -2259,12 +2240,12 @@
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="39"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="40"/>
       <c r="H28" s="17"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="39"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="40"/>
       <c r="L28" s="17"/>
       <c r="M28" s="26"/>
       <c r="N28" s="27"/>
@@ -2283,12 +2264,12 @@
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="39"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="40"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="39"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="40"/>
       <c r="L29" s="17"/>
       <c r="M29" s="26"/>
       <c r="N29" s="27"/>
@@ -2305,15 +2286,15 @@
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="73"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="62"/>
       <c r="H30" s="17"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="73"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="62"/>
       <c r="L30" s="17"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="73"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="62"/>
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="17"/>
@@ -2322,88 +2303,111 @@
       <c r="T30" s="18"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="62"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="49"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="63"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="65"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="52"/>
     </row>
     <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="66"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="68"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="H6:K7"/>
-    <mergeCell ref="H8:K9"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="X14:X17"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="A31:P33"/>
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="A6:B7"/>
@@ -2420,54 +2424,31 @@
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="I30:K30"/>
     <mergeCell ref="M30:N30"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="X14:X17"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="H6:K7"/>
+    <mergeCell ref="H8:K9"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S11:S30" xr:uid="{38BF65C4-1EDC-4A47-9A79-AB09A0409BAD}">
